--- a/AutoService/Resours/person.xlsx
+++ b/AutoService/Resours/person.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8837632-0CA0-4D75-958A-1C316FF0BEA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B51503B-54CF-465E-ABF1-9FBC15CC4042}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -35,13 +35,32 @@
   </si>
   <si>
     <t>Должность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата устройства </t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Чижов</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Работник</t>
+  </si>
+  <si>
+    <t>16 июля 2010 г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,11 +89,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -355,49 +379,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>